--- a/biology/Botanique/Butyriboletus_subappendiculatus/Butyriboletus_subappendiculatus.xlsx
+++ b/biology/Botanique/Butyriboletus_subappendiculatus/Butyriboletus_subappendiculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet des sapins
 Butyriboletus subappendiculatus, le Bolet des sapins, est une espèce comestible de champignons (Fungi) basidiomycètes du genre Butyriboletus dans la famille des Boletaceae. Il est caractérisé par son biotope sous conifères. Malgré son nom vernaculaire, Butyriboletus subappendiculatus peut pousser avec d'autres types de conifères que les Sapins, même si ces derniers restent tout de même son hôte de préférence.
@@ -512,18 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Butyriboletus subappendiculatus (Dermek, Lazebn. &amp; J.Veselský) D.Arora &amp; J.L.Frank[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus subappendiculatus Dermek, Lazebn. &amp; J.Veselský[2].
-Synonymes
-Butyriboletus subappendiculatus a pour synonymes[2] :
-Boletus appendiculatus var. subappendiculatus (Dermek, Lazebnicek &amp; Veselský) Kuthan
-Boletus edulis var. pusteriensis Ferrarese &amp; Simonini
-Boletus subappendiculatus (Dermek, Lazebn. &amp; J.Veselský) D.Arora &amp; J.L.Frank
-Boletus subappendiculatus Dermek, Lazebn. &amp; J.Veselský
-Noms vulgaires et vernaculaires
-Bolet des sapins, Bolet presque appendiculé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Butyriboletus subappendiculatus (Dermek, Lazebn. &amp; J.Veselský) D.Arora &amp; J.L.Frank.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus subappendiculatus Dermek, Lazebn. &amp; J.Veselský.
 </t>
         </is>
       </c>
@@ -549,18 +555,132 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Butyriboletus subappendiculatus a pour synonymes :
+Boletus appendiculatus var. subappendiculatus (Dermek, Lazebnicek &amp; Veselský) Kuthan
+Boletus edulis var. pusteriensis Ferrarese &amp; Simonini
+Boletus subappendiculatus (Dermek, Lazebn. &amp; J.Veselský) D.Arora &amp; J.L.Frank
+Boletus subappendiculatus Dermek, Lazebn. &amp; J.Veselský</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Butyriboletus_subappendiculatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Butyriboletus_subappendiculatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolet des sapins, Bolet presque appendiculé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Butyriboletus_subappendiculatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Butyriboletus_subappendiculatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Butyriboletus subappendiculatus sont les suivantes :
 Le chapeau est de couleur brun-jaune.
 L'hyménophore est constitué de tubes et pores jaunes bleuissant parfois au toucher.
 Le stipe est de couleur crème, jaune, parfois obèse, parfois cylindracé ou fusiforme.
-La chair est de couleur blanc, crème ou jaune, bleuissant parfois à peine à l'air. Sa saveur est douce[3].
-Réactions chimiques
-Sa cuticule devient rouge vif à KOH[3].
+La chair est de couleur blanc, crème ou jaune, bleuissant parfois à peine à l'air. Sa saveur est douce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Butyriboletus_subappendiculatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Butyriboletus_subappendiculatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa cuticule devient rouge vif à KOH.
 </t>
         </is>
       </c>
